--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44.62300474557222</v>
+        <v>40.35273080373261</v>
       </c>
       <c r="D2" t="n">
         <v>0.0007432820064133916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05929019675229672</v>
+        <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>39.8884062724137</v>
+        <v>34.6928741187416</v>
       </c>
       <c r="G2" t="n">
-        <v>38.78630815171076</v>
+        <v>32.34012333811126</v>
       </c>
       <c r="H2" t="n">
-        <v>40.99006317808372</v>
+        <v>37.12535548611606</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006037800538957039</v>
+        <v>0.004882757102988988</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000726572840983706</v>
+        <v>0.0007258133397975762</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01666724890697188</v>
+        <v>0.01319101658353342</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05430001633076101</v>
+        <v>0.05697857888526592</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05271544966080843</v>
+        <v>0.0546420270339088</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05666721464197966</v>
+        <v>0.0599160276657242</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3580681578505207</v>
+        <v>0.5260965591264744</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2050222215021868</v>
+        <v>0.02687817300514678</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5750256880377477</v>
+        <v>1.044092587235455</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3146236330156999</v>
+        <v>0.4912437483309917</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1970943627159124</v>
+        <v>0.02482324644628219</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473322051101331</v>
+        <v>0.974440389061549</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3218102682974906</v>
+        <v>0.5461418249637824</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2052522113641356</v>
+        <v>0.02830073138671181</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4765034004067701</v>
+        <v>1.083435470667743</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40.35273080373261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0007432820064133916</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05768901818751787</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35.21897067786807</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32.36700151111641</v>
+      </c>
+      <c r="H4" t="n">
+        <v>38.16944807335152</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4961265054339807</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02554905978607976</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9876314056450823</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6031204038490483</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.08294275842062061</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.143351498333467</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>34.6928741187416</v>
+        <v>34.67150079277169</v>
       </c>
       <c r="G2" t="n">
-        <v>32.34012333811126</v>
+        <v>32.308185612594</v>
       </c>
       <c r="H2" t="n">
-        <v>37.12535548611606</v>
+        <v>37.08203046344973</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004882757102988988</v>
+        <v>0.004875439521266707</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007258133397975762</v>
+        <v>0.0007247618761747751</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01319101658353342</v>
+        <v>0.01314330250379633</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05697857888526592</v>
+        <v>0.0569748011382435</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0546420270339088</v>
+        <v>0.05463332696829905</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0599160276657242</v>
+        <v>0.05991939919198197</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5260965591264744</v>
+        <v>0.5265381850453629</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02687817300514678</v>
+        <v>0.02048527309711148</v>
       </c>
       <c r="H3" t="n">
-        <v>1.044092587235455</v>
+        <v>1.038044166319508</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4912437483309917</v>
+        <v>0.4916629681751183</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02482324644628219</v>
+        <v>0.0192122726768235</v>
       </c>
       <c r="K3" t="n">
-        <v>0.974440389061549</v>
+        <v>0.9691492111444576</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5461418249637824</v>
+        <v>0.5465883663268607</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02830073138671181</v>
+        <v>0.02119892645419704</v>
       </c>
       <c r="N3" t="n">
-        <v>1.083435470667743</v>
+        <v>1.076694064868029</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F4" t="n">
-        <v>35.21897067786807</v>
+        <v>35.19803897781706</v>
       </c>
       <c r="G4" t="n">
-        <v>32.36700151111641</v>
+        <v>32.32867088569111</v>
       </c>
       <c r="H4" t="n">
-        <v>38.16944807335152</v>
+        <v>38.12007462976923</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4961265054339807</v>
+        <v>0.496538407696385</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02554905978607976</v>
+        <v>0.01993703455299828</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9876314056450823</v>
+        <v>0.9822925136482539</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6031204038490483</v>
+        <v>0.6035631674651043</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08294275842062061</v>
+        <v>0.07583225342249608</v>
       </c>
       <c r="N4" t="n">
-        <v>1.143351498333467</v>
+        <v>1.136613464060011</v>
       </c>
     </row>
   </sheetData>
